--- a/docs/source/examples/ExcelExample.xlsx
+++ b/docs/source/examples/ExcelExample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reaction List" sheetId="1" state="visible" r:id="rId2"/>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">Glycolysis/gluconeogenesis</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7.1.1,2.7.1.2</t>
+    <t xml:space="preserve">2.7.1.1;2.7.1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Reaction also associated with EC 2.7.1.2 </t>
   </si>
   <si>
-    <t xml:space="preserve">PMID:2043117,PMID:7150652</t>
+    <t xml:space="preserve">PMID:2043117;PMID:7150652</t>
   </si>
   <si>
     <t xml:space="preserve">FBA</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">Aldolase reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">PMID:12626877,PMID:6765112</t>
+    <t xml:space="preserve">PMID:12626877;PMID:6765112</t>
   </si>
   <si>
     <t xml:space="preserve">Charged formula</t>
@@ -260,17 +260,14 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="1" sqref="A1:K1 L3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7091836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.1683673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,22 +411,18 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
